--- a/output/0/tRNA-Arg-CCT-2-1.xlsx
+++ b/output/0/tRNA-Arg-CCT-2-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="85">
   <si>
     <t>chr17</t>
   </si>
@@ -267,36 +267,6 @@
   </si>
   <si>
     <t>73</t>
-  </si>
-  <si>
-    <t>73031075</t>
-  </si>
-  <si>
-    <t>73031098</t>
-  </si>
-  <si>
-    <t>73031095</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>GGGCGGCTGGGGCCAGAGGA</t>
-  </si>
-  <si>
-    <t>14% (35)</t>
-  </si>
-  <si>
-    <t>96% (79)</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 14%, Moreno-Mateos: 96%</t>
   </si>
 </sst>
 </file>
@@ -341,7 +311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -996,124 +966,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>89</v>
-      </c>
-      <c r="L12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>90</v>
-      </c>
-      <c r="O12" t="s">
-        <v>91</v>
-      </c>
-      <c r="P12" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>93</v>
-      </c>
-      <c r="R12" t="s">
-        <v>94</v>
-      </c>
-      <c r="S12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" t="s">
-        <v>88</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>89</v>
-      </c>
-      <c r="L13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O13" t="s">
-        <v>91</v>
-      </c>
-      <c r="P13" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>93</v>
-      </c>
-      <c r="R13" t="s">
-        <v>94</v>
-      </c>
-      <c r="S13" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
